--- a/biology/Zoologie/Delphinapterus/Delphinapterus.xlsx
+++ b/biology/Zoologie/Delphinapterus/Delphinapterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delphinapterus est un genre de cétacés odontocètes de la famille des Monodontidae. Il ne comprend qu'une seule espèce actuelle : le Bélouga (Delphinapterus leucas)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delphinapterus est un genre de cétacés odontocètes de la famille des Monodontidae. Il ne comprend qu'une seule espèce actuelle : le Bélouga (Delphinapterus leucas).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bélouga se rencontre surtout dans l'océan Arctique, en débordant aussi dans l'extrême nord de l'océan Atlantique et de l'océan Pacifique[2]. L'espèce fossile Delphinapterus brocchii, qui a vécu durant le Miocène, a été découverte en Italie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bélouga se rencontre surtout dans l'océan Arctique, en débordant aussi dans l'extrême nord de l'océan Atlantique et de l'océan Pacifique. L'espèce fossile Delphinapterus brocchii, qui a vécu durant le Miocène, a été découverte en Italie.
 </t>
         </is>
       </c>
@@ -542,14 +556,51 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois en 1804 par le zoologiste français Bernard-Germain de Lacépède (1756-1825). Il a pour synonymes Agrocetus, Argocetus, Beluga, Delphinaptera et Delphis, auxquels sont parfois ajoutés Delphinaster et Delphinopterus[1],[3].
-La seule espèce actuelle du genre étant le Bélouga, Delphinapterus est traditionnellement considéré comme étant un genre monospécifique, mais il comprend aussi une espèce fossile : Delphinapterus brocchii[3].
-Liste des espèces
-L'espèce actuelle selon Catalogue of Life                                   (21 décembre 2013)[4], ITIS      (21 décembre 2013)[5], Mammal Species of the World (version 3, 2005)  (21 décembre 2013)[6] et NCBI  (21 décembre 2013)[7] est :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1804 par le zoologiste français Bernard-Germain de Lacépède (1756-1825). Il a pour synonymes Agrocetus, Argocetus, Beluga, Delphinaptera et Delphis, auxquels sont parfois ajoutés Delphinaster et Delphinopterus,.
+La seule espèce actuelle du genre étant le Bélouga, Delphinapterus est traditionnellement considéré comme étant un genre monospécifique, mais il comprend aussi une espèce fossile : Delphinapterus brocchii.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Delphinapterus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Delphinapterus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce actuelle selon Catalogue of Life                                   (21 décembre 2013), ITIS      (21 décembre 2013), Mammal Species of the World (version 3, 2005)  (21 décembre 2013) et NCBI  (21 décembre 2013) est :
 Delphinapterus leucas (Pallas, 1776) - Bélouga.
-Les espèces actuelle et éteinte selon Paleobiology Database                   (21 décembre 2013)[8] sont :
+Les espèces actuelle et éteinte selon Paleobiology Database                   (21 décembre 2013) sont :
 Delphinapterus leucas (Pallas, 1776) - Bélouga ;
 † Delphinapterus brocchii Brandt, 1873.</t>
         </is>
